--- a/sample-data.xlsx
+++ b/sample-data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dmswl\Desktop\학교\인터넷 프로그래밍\Hello_Induk\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dudal\OneDrive\바탕 화면 1\학교\인터넷 프로그래밍\안뇽인덕\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1B2DABC-BDC0-4FF4-B78F-5F04366A97D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B54CD03F-2E08-40FC-BC79-F5068492D954}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{3D8B2416-78DA-4AB5-A9C9-3787DCA103D6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{3D8B2416-78DA-4AB5-A9C9-3787DCA103D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="79">
   <si>
     <t>유저 데이터</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -242,31 +242,114 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>L</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1+1할인 옵션</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기본</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>L 사이즈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B00000255</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>M 사이즈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>M</t>
+    <t>B00000256</t>
+  </si>
+  <si>
+    <t>B00000256-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B00000256-1, B00000256-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D00000004-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A00000001-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A00026345</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포근말랑 안뇽이 인형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A00026345-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>./img/represented/B00000256</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>./img/detail/B00000256</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쫀득쫀득 인덕이 인형과 편안한 밤을 보내 보세요!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>취급유의</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>./img/represented/D00000004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>./img/detail/D00000004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>헬로헬로 안뇽이 텀블러</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>차가운물만 담아야 합니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S00000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>입금완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>옵션코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B00000256-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dladmsgp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>태풍으로 인한 배송지연 안내</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(내용 입력)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>옵션명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B00000256-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>size: L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>size: M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1+1 할인</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -426,7 +509,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -437,6 +520,45 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -448,53 +570,20 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -810,61 +899,95 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{959CDA3E-48A8-4B4C-99B1-48DABCD728DC}">
-  <dimension ref="B2:AR8"/>
+  <dimension ref="B2:AY8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="V8" sqref="V8"/>
+    <sheetView tabSelected="1" topLeftCell="AN1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="AZ11" sqref="AZ11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="15.33203125" customWidth="1"/>
-    <col min="5" max="5" width="13.83203125" customWidth="1"/>
+    <col min="3" max="3" width="15.375" customWidth="1"/>
+    <col min="5" max="5" width="13.875" customWidth="1"/>
     <col min="9" max="9" width="11.25" customWidth="1"/>
     <col min="10" max="10" width="28" customWidth="1"/>
     <col min="11" max="11" width="15.75" customWidth="1"/>
-    <col min="12" max="12" width="15.33203125" customWidth="1"/>
+    <col min="12" max="12" width="27.5" customWidth="1"/>
+    <col min="20" max="20" width="11.625" customWidth="1"/>
+    <col min="21" max="21" width="29.875" customWidth="1"/>
+    <col min="22" max="22" width="23.625" customWidth="1"/>
+    <col min="23" max="23" width="40" customWidth="1"/>
+    <col min="24" max="24" width="15.125" customWidth="1"/>
+    <col min="25" max="25" width="21" customWidth="1"/>
+    <col min="29" max="29" width="11.625" customWidth="1"/>
+    <col min="31" max="31" width="11.625" customWidth="1"/>
+    <col min="32" max="32" width="14.25" customWidth="1"/>
+    <col min="33" max="33" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="11.25" customWidth="1"/>
+    <col min="39" max="39" width="10.125" customWidth="1"/>
+    <col min="43" max="43" width="24.125" customWidth="1"/>
+    <col min="44" max="44" width="9.375" customWidth="1"/>
+    <col min="45" max="45" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="11.75" customWidth="1"/>
+    <col min="49" max="49" width="13.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:44" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="3" spans="2:44" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.45">
-      <c r="B3" s="4" t="s">
+    <row r="2" spans="2:51" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="2:51" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="6"/>
-      <c r="H3" s="4" t="s">
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="19"/>
+      <c r="H3" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="6"/>
-      <c r="S3" s="22" t="s">
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="19"/>
+      <c r="S3" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="T3" s="22"/>
-      <c r="U3" s="22"/>
-      <c r="V3" s="22"/>
-      <c r="W3" s="22"/>
-      <c r="X3" s="22"/>
+      <c r="T3" s="21"/>
+      <c r="U3" s="21"/>
+      <c r="V3" s="21"/>
+      <c r="W3" s="21"/>
+      <c r="X3" s="21"/>
       <c r="Y3" s="22"/>
-      <c r="AB3" s="7" t="s">
+      <c r="AB3" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="AJ3" s="7" t="s">
+      <c r="AC3" s="21"/>
+      <c r="AD3" s="21"/>
+      <c r="AE3" s="21"/>
+      <c r="AF3" s="21"/>
+      <c r="AG3" s="21"/>
+      <c r="AH3" s="22"/>
+      <c r="AK3" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="AO3" s="7" t="s">
+      <c r="AL3" s="21"/>
+      <c r="AM3" s="22"/>
+      <c r="AP3" s="20" t="s">
         <v>27</v>
       </c>
+      <c r="AQ3" s="21"/>
+      <c r="AR3" s="21"/>
+      <c r="AS3" s="22"/>
+      <c r="AU3" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="AV3" s="21"/>
+      <c r="AW3" s="21"/>
+      <c r="AX3" s="21"/>
+      <c r="AY3" s="22"/>
     </row>
-    <row r="4" spans="2:44" s="14" customFormat="1" ht="16" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:51" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
@@ -893,235 +1016,397 @@
         <v>8</v>
       </c>
       <c r="M4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="W4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="X4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AE4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF4" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="AG4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="AH4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AK4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AL4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AM4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AP4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AQ4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AR4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AS4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AU4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AV4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AW4" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="AX4" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AY4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="N4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="S4" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="T4" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="U4" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="V4" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="W4" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="X4" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y4" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="AB4" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC4" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="AD4" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="AE4" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="AF4" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="AG4" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="AJ4" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="AK4" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="AL4" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="AO4" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="AP4" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="AQ4" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="AR4" s="14" t="s">
-        <v>31</v>
-      </c>
     </row>
-    <row r="5" spans="2:44" s="14" customFormat="1" ht="16" x14ac:dyDescent="0.45">
-      <c r="B5" s="8">
+    <row r="5" spans="2:51" s="11" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="5">
         <v>0</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="H5" s="15">
+      <c r="H5" s="12">
         <v>0</v>
       </c>
-      <c r="I5" s="16" t="s">
+      <c r="I5" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="J5" s="16" t="s">
+      <c r="J5" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="K5" s="9" t="s">
+      <c r="K5" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="L5" s="9" t="s">
+      <c r="L5" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="M5" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="N5" s="6">
+        <v>0</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="S5" s="12">
+        <v>0</v>
+      </c>
+      <c r="T5" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="U5" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="V5" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="W5" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="X5" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y5" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB5" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD5" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE5" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF5" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="M5" s="17">
-        <v>7500</v>
-      </c>
-      <c r="N5" s="9" t="b">
+      <c r="AG5" s="6">
+        <v>20230511</v>
+      </c>
+      <c r="AH5" s="7">
+        <v>1</v>
+      </c>
+      <c r="AK5" s="12">
         <v>0</v>
       </c>
-      <c r="O5" s="9">
+      <c r="AL5" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="AM5" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="AP5" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ5" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR5" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="AS5" s="10">
+        <v>20230511</v>
+      </c>
+      <c r="AU5" s="12">
         <v>0</v>
       </c>
-      <c r="P5" s="10" t="s">
-        <v>42</v>
+      <c r="AV5" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="AW5" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="AX5" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="AY5" s="23">
+        <v>60000</v>
       </c>
     </row>
-    <row r="6" spans="2:44" s="14" customFormat="1" ht="16" x14ac:dyDescent="0.45">
-      <c r="B6" s="8">
+    <row r="6" spans="2:51" s="11" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="5">
         <v>1</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="H6" s="15">
+      <c r="H6" s="12">
         <v>4</v>
       </c>
-      <c r="I6" s="9" t="s">
+      <c r="I6" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="J6" s="9" t="s">
+      <c r="J6" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="K6" s="9" t="s">
+      <c r="K6" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="L6" s="9" t="s">
+      <c r="L6" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="M6" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="N6" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="S6" s="15">
+        <v>4</v>
+      </c>
+      <c r="T6" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="U6" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="V6" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="W6" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="X6" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y6" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB6" s="15">
+        <v>2</v>
+      </c>
+      <c r="AC6" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD6" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE6" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF6" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG6" s="9">
+        <v>20230511</v>
+      </c>
+      <c r="AH6" s="10">
+        <v>3</v>
+      </c>
+      <c r="AK6" s="15">
+        <v>1</v>
+      </c>
+      <c r="AL6" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="AM6" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="AU6" s="12">
+        <v>1</v>
+      </c>
+      <c r="AV6" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="AW6" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX6" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="AY6" s="23">
+        <v>56000</v>
+      </c>
+    </row>
+    <row r="7" spans="2:51" s="11" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="8">
+        <v>2</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" s="12">
+        <v>256</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="L7" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="M6" s="17">
-        <v>8000</v>
-      </c>
-      <c r="N6" s="9" t="b">
+      <c r="M7" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="N7" s="14">
+        <v>0</v>
+      </c>
+      <c r="O7" s="7"/>
+      <c r="AU7" s="15">
+        <v>2</v>
+      </c>
+      <c r="AV7" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AW7" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AX7" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="AY7" s="24">
+        <v>7200</v>
+      </c>
+    </row>
+    <row r="8" spans="2:51" s="11" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H8" s="15">
+        <v>26345</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="L8" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="M8" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="O6" s="18">
-        <v>0.5</v>
-      </c>
-      <c r="P6" s="10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="2:44" s="14" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B7" s="11">
-        <v>2</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="H7" s="15">
-        <v>256</v>
-      </c>
-      <c r="I7" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="J7" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="K7" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="L7" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="M7" s="17">
-        <v>56000</v>
-      </c>
-      <c r="N7" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="O7" s="18">
-        <v>0</v>
-      </c>
-      <c r="P7" s="10" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" spans="2:44" s="14" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="H8" s="19">
-        <v>255</v>
-      </c>
-      <c r="I8" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="J8" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="K8" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="L8" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="M8" s="20">
-        <v>56000</v>
-      </c>
-      <c r="N8" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="O8" s="21">
-        <v>0</v>
-      </c>
-      <c r="P8" s="13" t="s">
-        <v>57</v>
-      </c>
+      <c r="N8" s="16">
+        <v>0.1</v>
+      </c>
+      <c r="O8" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="7">
+    <mergeCell ref="AK3:AM3"/>
+    <mergeCell ref="AP3:AS3"/>
+    <mergeCell ref="AU3:AY3"/>
     <mergeCell ref="B3:E3"/>
-    <mergeCell ref="H3:P3"/>
     <mergeCell ref="S3:Y3"/>
+    <mergeCell ref="H3:O3"/>
+    <mergeCell ref="AB3:AH3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/sample-data.xlsx
+++ b/sample-data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dudal\OneDrive\바탕 화면 1\학교\인터넷 프로그래밍\안뇽인덕\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dmswl\Desktop\학교\인터넷 프로그래밍\Hello_Induk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B54CD03F-2E08-40FC-BC79-F5068492D954}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FD0C8D3-A4C8-4713-B003-DB76513C32EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{3D8B2416-78DA-4AB5-A9C9-3787DCA103D6}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{3D8B2416-78DA-4AB5-A9C9-3787DCA103D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -509,14 +509,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -528,7 +528,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
@@ -543,16 +543,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
@@ -560,6 +554,21 @@
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -569,21 +578,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -901,93 +895,93 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{959CDA3E-48A8-4B4C-99B1-48DABCD728DC}">
   <dimension ref="B2:AY8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AN1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="AZ11" sqref="AZ11"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="Y8" sqref="Y8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="15.375" customWidth="1"/>
-    <col min="5" max="5" width="13.875" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" customWidth="1"/>
+    <col min="5" max="5" width="13.83203125" customWidth="1"/>
     <col min="9" max="9" width="11.25" customWidth="1"/>
     <col min="10" max="10" width="28" customWidth="1"/>
     <col min="11" max="11" width="15.75" customWidth="1"/>
     <col min="12" max="12" width="27.5" customWidth="1"/>
-    <col min="20" max="20" width="11.625" customWidth="1"/>
-    <col min="21" max="21" width="29.875" customWidth="1"/>
-    <col min="22" max="22" width="23.625" customWidth="1"/>
+    <col min="20" max="20" width="11.58203125" customWidth="1"/>
+    <col min="21" max="21" width="29.83203125" customWidth="1"/>
+    <col min="22" max="22" width="23.58203125" customWidth="1"/>
     <col min="23" max="23" width="40" customWidth="1"/>
-    <col min="24" max="24" width="15.125" customWidth="1"/>
+    <col min="24" max="24" width="15.08203125" customWidth="1"/>
     <col min="25" max="25" width="21" customWidth="1"/>
-    <col min="29" max="29" width="11.625" customWidth="1"/>
-    <col min="31" max="31" width="11.625" customWidth="1"/>
+    <col min="29" max="29" width="11.58203125" customWidth="1"/>
+    <col min="31" max="31" width="11.58203125" customWidth="1"/>
     <col min="32" max="32" width="14.25" customWidth="1"/>
     <col min="33" max="33" width="10.75" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="11.25" customWidth="1"/>
-    <col min="39" max="39" width="10.125" customWidth="1"/>
-    <col min="43" max="43" width="24.125" customWidth="1"/>
-    <col min="44" max="44" width="9.375" customWidth="1"/>
+    <col min="39" max="39" width="10.08203125" customWidth="1"/>
+    <col min="43" max="43" width="24.08203125" customWidth="1"/>
+    <col min="44" max="44" width="9.33203125" customWidth="1"/>
     <col min="45" max="45" width="10.75" bestFit="1" customWidth="1"/>
     <col min="48" max="48" width="11.75" customWidth="1"/>
-    <col min="49" max="49" width="13.625" customWidth="1"/>
+    <col min="49" max="49" width="13.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:51" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="2:51" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="17" t="s">
+    <row r="2" spans="2:51" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="3" spans="2:51" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.45">
+      <c r="B3" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="19"/>
-      <c r="H3" s="17" t="s">
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="22"/>
+      <c r="H3" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="19"/>
-      <c r="S3" s="20" t="s">
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="22"/>
+      <c r="S3" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="T3" s="21"/>
-      <c r="U3" s="21"/>
-      <c r="V3" s="21"/>
-      <c r="W3" s="21"/>
-      <c r="X3" s="21"/>
-      <c r="Y3" s="22"/>
-      <c r="AB3" s="20" t="s">
+      <c r="T3" s="18"/>
+      <c r="U3" s="18"/>
+      <c r="V3" s="18"/>
+      <c r="W3" s="18"/>
+      <c r="X3" s="18"/>
+      <c r="Y3" s="19"/>
+      <c r="AB3" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="AC3" s="21"/>
-      <c r="AD3" s="21"/>
-      <c r="AE3" s="21"/>
-      <c r="AF3" s="21"/>
-      <c r="AG3" s="21"/>
-      <c r="AH3" s="22"/>
-      <c r="AK3" s="20" t="s">
+      <c r="AC3" s="18"/>
+      <c r="AD3" s="18"/>
+      <c r="AE3" s="18"/>
+      <c r="AF3" s="18"/>
+      <c r="AG3" s="18"/>
+      <c r="AH3" s="19"/>
+      <c r="AK3" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="AL3" s="21"/>
-      <c r="AM3" s="22"/>
-      <c r="AP3" s="20" t="s">
+      <c r="AL3" s="18"/>
+      <c r="AM3" s="19"/>
+      <c r="AP3" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="AQ3" s="21"/>
-      <c r="AR3" s="21"/>
-      <c r="AS3" s="22"/>
-      <c r="AU3" s="20" t="s">
+      <c r="AQ3" s="18"/>
+      <c r="AR3" s="18"/>
+      <c r="AS3" s="19"/>
+      <c r="AU3" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="AV3" s="21"/>
-      <c r="AW3" s="21"/>
-      <c r="AX3" s="21"/>
-      <c r="AY3" s="22"/>
+      <c r="AV3" s="18"/>
+      <c r="AW3" s="18"/>
+      <c r="AX3" s="18"/>
+      <c r="AY3" s="19"/>
     </row>
-    <row r="4" spans="2:51" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:51" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.45">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1103,7 +1097,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="2:51" s="11" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:51" s="6" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B5" s="5">
         <v>0</v>
       </c>
@@ -1116,13 +1110,13 @@
       <c r="E5" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="H5" s="12">
+      <c r="H5" s="11">
         <v>0</v>
       </c>
-      <c r="I5" s="13" t="s">
+      <c r="I5" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="J5" s="13" t="s">
+      <c r="J5" s="6" t="s">
         <v>43</v>
       </c>
       <c r="K5" s="6" t="s">
@@ -1140,7 +1134,7 @@
       <c r="O5" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="S5" s="12">
+      <c r="S5" s="11">
         <v>0</v>
       </c>
       <c r="T5" s="6" t="s">
@@ -1161,7 +1155,7 @@
       <c r="Y5" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="AB5" s="12">
+      <c r="AB5" s="11">
         <v>0</v>
       </c>
       <c r="AC5" s="6" t="s">
@@ -1182,7 +1176,7 @@
       <c r="AH5" s="7">
         <v>1</v>
       </c>
-      <c r="AK5" s="12">
+      <c r="AK5" s="11">
         <v>0</v>
       </c>
       <c r="AL5" s="6" t="s">
@@ -1191,7 +1185,7 @@
       <c r="AM5" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="AP5" s="15" t="b">
+      <c r="AP5" s="13" t="b">
         <v>1</v>
       </c>
       <c r="AQ5" s="9" t="s">
@@ -1203,7 +1197,7 @@
       <c r="AS5" s="10">
         <v>20230511</v>
       </c>
-      <c r="AU5" s="12">
+      <c r="AU5" s="11">
         <v>0</v>
       </c>
       <c r="AV5" s="6" t="s">
@@ -1215,11 +1209,11 @@
       <c r="AX5" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="AY5" s="23">
+      <c r="AY5" s="15">
         <v>60000</v>
       </c>
     </row>
-    <row r="6" spans="2:51" s="11" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:51" s="6" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B6" s="5">
         <v>1</v>
       </c>
@@ -1232,7 +1226,7 @@
       <c r="E6" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="H6" s="12">
+      <c r="H6" s="11">
         <v>4</v>
       </c>
       <c r="I6" s="6" t="s">
@@ -1250,13 +1244,13 @@
       <c r="M6" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="N6" s="14">
+      <c r="N6" s="12">
         <v>0.5</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="S6" s="15">
+      <c r="S6" s="13">
         <v>4</v>
       </c>
       <c r="T6" s="9" t="s">
@@ -1277,7 +1271,7 @@
       <c r="Y6" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="AB6" s="15">
+      <c r="AB6" s="13">
         <v>2</v>
       </c>
       <c r="AC6" s="9" t="s">
@@ -1298,7 +1292,7 @@
       <c r="AH6" s="10">
         <v>3</v>
       </c>
-      <c r="AK6" s="15">
+      <c r="AK6" s="13">
         <v>1</v>
       </c>
       <c r="AL6" s="9" t="s">
@@ -1307,7 +1301,7 @@
       <c r="AM6" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="AU6" s="12">
+      <c r="AU6" s="11">
         <v>1</v>
       </c>
       <c r="AV6" s="6" t="s">
@@ -1319,11 +1313,11 @@
       <c r="AX6" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="AY6" s="23">
+      <c r="AY6" s="15">
         <v>56000</v>
       </c>
     </row>
-    <row r="7" spans="2:51" s="11" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:51" s="6" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B7" s="8">
         <v>2</v>
       </c>
@@ -1336,7 +1330,7 @@
       <c r="E7" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="H7" s="12">
+      <c r="H7" s="11">
         <v>256</v>
       </c>
       <c r="I7" s="6" t="s">
@@ -1354,11 +1348,11 @@
       <c r="M7" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="N7" s="14">
+      <c r="N7" s="12">
         <v>0</v>
       </c>
       <c r="O7" s="7"/>
-      <c r="AU7" s="15">
+      <c r="AU7" s="13">
         <v>2</v>
       </c>
       <c r="AV7" s="9" t="s">
@@ -1370,12 +1364,12 @@
       <c r="AX7" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="AY7" s="24">
+      <c r="AY7" s="16">
         <v>7200</v>
       </c>
     </row>
-    <row r="8" spans="2:51" s="11" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H8" s="15">
+    <row r="8" spans="2:51" s="6" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="H8" s="13">
         <v>26345</v>
       </c>
       <c r="I8" s="9" t="s">
@@ -1393,7 +1387,7 @@
       <c r="M8" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="N8" s="16">
+      <c r="N8" s="14">
         <v>0.1</v>
       </c>
       <c r="O8" s="10"/>
